--- a/converter/data/xlsx/27.2. A SMJENA.XLSX
+++ b/converter/data/xlsx/27.2. A SMJENA.XLSX
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\RASPORED-2022\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740"/>
   </bookViews>
@@ -530,8 +535,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="37">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -788,6 +793,14 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0099FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
   <fills count="29">
     <fill>
@@ -2531,7 +2544,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="610">
+  <cellXfs count="611">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -3998,9 +4011,6 @@
     <xf numFmtId="0" fontId="22" fillId="6" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="24" borderId="88" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="25" borderId="88" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4021,17 +4031,104 @@
     <xf numFmtId="0" fontId="8" fillId="9" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="106" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="106" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="76" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="81" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="85" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="86" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="81" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="85" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="87" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="106" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="107" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="110" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4048,118 +4145,37 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="106" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="106" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="107" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="76" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="81" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="85" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="86" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="81" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="85" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="87" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="106" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="106" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
+    <cellStyle name="Normalno" xfId="0" builtinId="0"/>
     <cellStyle name="Normalno 2" xfId="2"/>
-    <cellStyle name="Obično" xfId="0" builtinId="0"/>
     <cellStyle name="Obično 2" xfId="1"/>
     <cellStyle name="Obično 3" xfId="3"/>
   </cellStyles>
@@ -4167,9 +4183,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0099FF"/>
       <color rgb="FFCC99FF"/>
       <color rgb="FFCCFFCC"/>
-      <color rgb="FF0099FF"/>
       <color rgb="FF767D33"/>
       <color rgb="FF00B050"/>
       <color rgb="FFFF99CC"/>
@@ -4210,7 +4226,7 @@
         <xdr:cNvPr id="3" name="Ravni poveznik sa strelicom 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4263,7 +4279,7 @@
         <xdr:cNvPr id="5" name="Ravni poveznik sa strelicom 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4316,7 +4332,7 @@
         <xdr:cNvPr id="7" name="Ravni poveznik sa strelicom 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4369,7 +4385,7 @@
         <xdr:cNvPr id="11" name="Ravni poveznik sa strelicom 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4422,7 +4438,7 @@
         <xdr:cNvPr id="13" name="Ravni poveznik sa strelicom 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4475,7 +4491,7 @@
         <xdr:cNvPr id="15" name="Ravni poveznik sa strelicom 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4528,7 +4544,7 @@
         <xdr:cNvPr id="17" name="Ravni poveznik sa strelicom 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4581,7 +4597,7 @@
         <xdr:cNvPr id="4" name="Ravni poveznik sa strelicom 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4634,7 +4650,7 @@
         <xdr:cNvPr id="6" name="Ravni poveznik sa strelicom 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4687,7 +4703,7 @@
         <xdr:cNvPr id="9" name="Ravni poveznik sa strelicom 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4740,7 +4756,7 @@
         <xdr:cNvPr id="16" name="Ravni poveznik sa strelicom 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4793,7 +4809,7 @@
         <xdr:cNvPr id="24" name="Ravni poveznik sa strelicom 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4846,7 +4862,7 @@
         <xdr:cNvPr id="20" name="Ravni poveznik sa strelicom 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4899,7 +4915,7 @@
         <xdr:cNvPr id="22" name="Ravni poveznik sa strelicom 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4952,7 +4968,7 @@
         <xdr:cNvPr id="27" name="Ravni poveznik sa strelicom 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5005,7 +5021,7 @@
         <xdr:cNvPr id="29" name="Ravni poveznik sa strelicom 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5058,7 +5074,7 @@
         <xdr:cNvPr id="33" name="Ravni poveznik sa strelicom 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000021000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5111,7 +5127,7 @@
         <xdr:cNvPr id="37" name="Ravni poveznik sa strelicom 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000025000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5164,7 +5180,7 @@
         <xdr:cNvPr id="31" name="Ravni poveznik sa strelicom 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5217,7 +5233,7 @@
         <xdr:cNvPr id="34" name="Ravni poveznik sa strelicom 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000022000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5270,7 +5286,7 @@
         <xdr:cNvPr id="38" name="Ravni poveznik sa strelicom 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000026000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5323,7 +5339,7 @@
         <xdr:cNvPr id="30" name="Ravni poveznik sa strelicom 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5376,7 +5392,7 @@
         <xdr:cNvPr id="36" name="Ravni poveznik sa strelicom 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000024000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5429,7 +5445,7 @@
         <xdr:cNvPr id="41" name="Ravni poveznik sa strelicom 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000029000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5468,7 +5484,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema sustava Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5510,7 +5526,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5542,9 +5558,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5576,6 +5593,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5751,14 +5769,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AC17" sqref="AC17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.7109375" customWidth="1"/>
     <col min="2" max="2" width="6.85546875" customWidth="1"/>
@@ -5795,105 +5813,105 @@
     <col min="39" max="39" width="5.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="27" thickBot="1">
-      <c r="A1" s="595" t="s">
+    <row r="1" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="575" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="595"/>
-      <c r="C1" s="595"/>
-      <c r="D1" s="595"/>
-      <c r="E1" s="595"/>
-      <c r="F1" s="595"/>
-      <c r="G1" s="595"/>
-      <c r="H1" s="595"/>
-      <c r="I1" s="595"/>
-      <c r="J1" s="595"/>
-      <c r="K1" s="595"/>
-      <c r="L1" s="595"/>
-      <c r="M1" s="595"/>
-      <c r="N1" s="595"/>
-      <c r="O1" s="595"/>
-      <c r="P1" s="595"/>
-      <c r="Q1" s="595"/>
-      <c r="R1" s="595"/>
-      <c r="S1" s="595"/>
-      <c r="T1" s="595"/>
-      <c r="U1" s="595"/>
-      <c r="V1" s="595"/>
-      <c r="W1" s="595"/>
-      <c r="X1" s="595"/>
-      <c r="Y1" s="595"/>
-      <c r="Z1" s="595"/>
-      <c r="AA1" s="595"/>
-      <c r="AB1" s="595"/>
-      <c r="AC1" s="595"/>
-      <c r="AD1" s="595"/>
-      <c r="AE1" s="595"/>
-      <c r="AF1" s="595"/>
-      <c r="AG1" s="595"/>
-      <c r="AH1" s="595"/>
-      <c r="AI1" s="595"/>
-      <c r="AJ1" s="595"/>
-      <c r="AK1" s="595"/>
-      <c r="AL1" s="595"/>
-      <c r="AM1" s="595"/>
+      <c r="B1" s="575"/>
+      <c r="C1" s="575"/>
+      <c r="D1" s="575"/>
+      <c r="E1" s="575"/>
+      <c r="F1" s="575"/>
+      <c r="G1" s="575"/>
+      <c r="H1" s="575"/>
+      <c r="I1" s="575"/>
+      <c r="J1" s="575"/>
+      <c r="K1" s="575"/>
+      <c r="L1" s="575"/>
+      <c r="M1" s="575"/>
+      <c r="N1" s="575"/>
+      <c r="O1" s="575"/>
+      <c r="P1" s="575"/>
+      <c r="Q1" s="575"/>
+      <c r="R1" s="575"/>
+      <c r="S1" s="575"/>
+      <c r="T1" s="575"/>
+      <c r="U1" s="575"/>
+      <c r="V1" s="575"/>
+      <c r="W1" s="575"/>
+      <c r="X1" s="575"/>
+      <c r="Y1" s="575"/>
+      <c r="Z1" s="575"/>
+      <c r="AA1" s="575"/>
+      <c r="AB1" s="575"/>
+      <c r="AC1" s="575"/>
+      <c r="AD1" s="575"/>
+      <c r="AE1" s="575"/>
+      <c r="AF1" s="575"/>
+      <c r="AG1" s="575"/>
+      <c r="AH1" s="575"/>
+      <c r="AI1" s="575"/>
+      <c r="AJ1" s="575"/>
+      <c r="AK1" s="575"/>
+      <c r="AL1" s="575"/>
+      <c r="AM1" s="575"/>
       <c r="AN1" s="1"/>
     </row>
-    <row r="2" spans="1:42" ht="18">
+    <row r="2" spans="1:42" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B2" s="596" t="s">
+      <c r="B2" s="576" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="597"/>
-      <c r="D2" s="597"/>
-      <c r="E2" s="597"/>
-      <c r="F2" s="597"/>
-      <c r="G2" s="597"/>
-      <c r="H2" s="598"/>
+      <c r="C2" s="577"/>
+      <c r="D2" s="577"/>
+      <c r="E2" s="577"/>
+      <c r="F2" s="577"/>
+      <c r="G2" s="577"/>
+      <c r="H2" s="578"/>
       <c r="I2" s="487"/>
-      <c r="J2" s="599" t="s">
+      <c r="J2" s="579" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="597"/>
-      <c r="L2" s="597"/>
-      <c r="M2" s="597"/>
-      <c r="N2" s="597"/>
-      <c r="O2" s="597"/>
-      <c r="P2" s="598"/>
+      <c r="K2" s="577"/>
+      <c r="L2" s="577"/>
+      <c r="M2" s="577"/>
+      <c r="N2" s="577"/>
+      <c r="O2" s="577"/>
+      <c r="P2" s="578"/>
       <c r="Q2" s="367"/>
-      <c r="R2" s="599" t="s">
+      <c r="R2" s="579" t="s">
         <v>1</v>
       </c>
-      <c r="S2" s="597"/>
-      <c r="T2" s="597"/>
-      <c r="U2" s="597"/>
-      <c r="V2" s="597"/>
-      <c r="W2" s="597"/>
-      <c r="X2" s="598"/>
+      <c r="S2" s="577"/>
+      <c r="T2" s="577"/>
+      <c r="U2" s="577"/>
+      <c r="V2" s="577"/>
+      <c r="W2" s="577"/>
+      <c r="X2" s="578"/>
       <c r="Y2" s="367"/>
-      <c r="Z2" s="599" t="s">
+      <c r="Z2" s="579" t="s">
         <v>2</v>
       </c>
-      <c r="AA2" s="597"/>
-      <c r="AB2" s="597"/>
-      <c r="AC2" s="597"/>
-      <c r="AD2" s="597"/>
-      <c r="AE2" s="597"/>
-      <c r="AF2" s="598"/>
-      <c r="AG2" s="596" t="s">
+      <c r="AA2" s="577"/>
+      <c r="AB2" s="577"/>
+      <c r="AC2" s="577"/>
+      <c r="AD2" s="577"/>
+      <c r="AE2" s="577"/>
+      <c r="AF2" s="578"/>
+      <c r="AG2" s="576" t="s">
         <v>3</v>
       </c>
-      <c r="AH2" s="600"/>
-      <c r="AI2" s="600"/>
-      <c r="AJ2" s="600"/>
-      <c r="AK2" s="600"/>
-      <c r="AL2" s="600"/>
-      <c r="AM2" s="601"/>
+      <c r="AH2" s="580"/>
+      <c r="AI2" s="580"/>
+      <c r="AJ2" s="580"/>
+      <c r="AK2" s="580"/>
+      <c r="AL2" s="580"/>
+      <c r="AM2" s="581"/>
       <c r="AN2" s="1"/>
     </row>
-    <row r="3" spans="1:42" ht="16.5" thickBot="1">
+    <row r="3" spans="1:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
@@ -6013,7 +6031,7 @@
       </c>
       <c r="AN3" s="1"/>
     </row>
-    <row r="4" spans="1:42" ht="18.75" thickTop="1">
+    <row r="4" spans="1:42" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
         <v>68</v>
       </c>
@@ -6095,7 +6113,7 @@
       </c>
       <c r="AN4" s="1"/>
     </row>
-    <row r="5" spans="1:42" ht="18" customHeight="1">
+    <row r="5" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="208" t="s">
         <v>45</v>
       </c>
@@ -6177,7 +6195,7 @@
       </c>
       <c r="AN5" s="25"/>
     </row>
-    <row r="6" spans="1:42" ht="18" customHeight="1" thickBot="1">
+    <row r="6" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="205" t="s">
         <v>60</v>
       </c>
@@ -6241,7 +6259,7 @@
       <c r="AM6" s="280"/>
       <c r="AN6" s="25"/>
     </row>
-    <row r="7" spans="1:42" ht="17.25" customHeight="1">
+    <row r="7" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="209" t="s">
         <v>61</v>
       </c>
@@ -6293,7 +6311,7 @@
       <c r="AM7" s="74"/>
       <c r="AN7" s="25"/>
     </row>
-    <row r="8" spans="1:42" ht="17.25" customHeight="1">
+    <row r="8" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
         <v>69</v>
       </c>
@@ -6379,7 +6397,7 @@
       <c r="AM8" s="63"/>
       <c r="AN8" s="19"/>
     </row>
-    <row r="9" spans="1:42" ht="16.5" customHeight="1">
+    <row r="9" spans="1:42" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="133" t="s">
         <v>49</v>
       </c>
@@ -6391,10 +6409,10 @@
       <c r="G9" s="45"/>
       <c r="H9" s="52"/>
       <c r="I9" s="390"/>
-      <c r="J9" s="569" t="s">
+      <c r="J9" s="597" t="s">
         <v>104</v>
       </c>
-      <c r="K9" s="570"/>
+      <c r="K9" s="598"/>
       <c r="L9" s="284"/>
       <c r="M9" s="45"/>
       <c r="N9" s="45"/>
@@ -6457,7 +6475,7 @@
       </c>
       <c r="AN9" s="182"/>
     </row>
-    <row r="10" spans="1:42" ht="18.75" customHeight="1">
+    <row r="10" spans="1:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>130</v>
       </c>
@@ -6471,10 +6489,10 @@
       <c r="I10" s="389" t="s">
         <v>78</v>
       </c>
-      <c r="J10" s="571" t="s">
+      <c r="J10" s="599" t="s">
         <v>104</v>
       </c>
-      <c r="K10" s="572"/>
+      <c r="K10" s="600"/>
       <c r="L10" s="48"/>
       <c r="M10" s="45"/>
       <c r="N10" s="45"/>
@@ -6537,7 +6555,7 @@
       <c r="AM10" s="45"/>
       <c r="AN10" s="25"/>
     </row>
-    <row r="11" spans="1:42" ht="16.5" customHeight="1">
+    <row r="11" spans="1:42" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="181" t="s">
         <v>65</v>
       </c>
@@ -6591,7 +6609,7 @@
       <c r="AM11" s="49"/>
       <c r="AN11" s="25"/>
     </row>
-    <row r="12" spans="1:42" ht="18" customHeight="1" thickBot="1">
+    <row r="12" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="134" t="s">
         <v>6</v>
       </c>
@@ -6603,11 +6621,11 @@
       <c r="E12" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="602" t="s">
+      <c r="F12" s="564" t="s">
         <v>107</v>
       </c>
-      <c r="G12" s="603"/>
-      <c r="H12" s="166"/>
+      <c r="G12" s="605"/>
+      <c r="H12" s="606"/>
       <c r="I12" s="416"/>
       <c r="J12" s="369" t="s">
         <v>38</v>
@@ -6615,7 +6633,7 @@
       <c r="K12" s="111" t="s">
         <v>38</v>
       </c>
-      <c r="L12" s="576" t="s">
+      <c r="L12" s="607" t="s">
         <v>102</v>
       </c>
       <c r="M12" s="608"/>
@@ -6625,10 +6643,10 @@
       <c r="O12" s="172"/>
       <c r="P12" s="166"/>
       <c r="Q12" s="416"/>
-      <c r="R12" s="604" t="s">
+      <c r="R12" s="565" t="s">
         <v>102</v>
       </c>
-      <c r="S12" s="605"/>
+      <c r="S12" s="566"/>
       <c r="T12" s="285"/>
       <c r="U12" s="286"/>
       <c r="V12" s="285"/>
@@ -6639,17 +6657,17 @@
         <v>37</v>
       </c>
       <c r="AA12" s="235"/>
-      <c r="AB12" s="578" t="s">
+      <c r="AB12" s="602" t="s">
         <v>106</v>
       </c>
-      <c r="AC12" s="579"/>
-      <c r="AD12" s="552" t="s">
+      <c r="AC12" s="603"/>
+      <c r="AD12" s="610" t="s">
         <v>105</v>
       </c>
-      <c r="AE12" s="576" t="s">
+      <c r="AE12" s="607" t="s">
         <v>102</v>
       </c>
-      <c r="AF12" s="577"/>
+      <c r="AF12" s="609"/>
       <c r="AG12" s="85"/>
       <c r="AH12" s="69"/>
       <c r="AI12" s="69"/>
@@ -6659,7 +6677,7 @@
       <c r="AM12" s="114"/>
       <c r="AN12" s="1"/>
     </row>
-    <row r="13" spans="1:42" ht="18.75" customHeight="1">
+    <row r="13" spans="1:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="132" t="s">
         <v>7</v>
       </c>
@@ -6723,7 +6741,7 @@
       </c>
       <c r="AN13" s="182"/>
     </row>
-    <row r="14" spans="1:42" ht="18.75" customHeight="1">
+    <row r="14" spans="1:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="132" t="s">
         <v>63</v>
       </c>
@@ -6781,7 +6799,7 @@
       <c r="AM14" s="50"/>
       <c r="AN14" s="1"/>
     </row>
-    <row r="15" spans="1:42" ht="16.5" customHeight="1">
+    <row r="15" spans="1:42" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="132" t="s">
         <v>53</v>
       </c>
@@ -6816,8 +6834,8 @@
       <c r="AB15" s="45"/>
       <c r="AC15" s="45"/>
       <c r="AD15" s="45"/>
-      <c r="AE15" s="574"/>
-      <c r="AF15" s="588"/>
+      <c r="AE15" s="569"/>
+      <c r="AF15" s="570"/>
       <c r="AG15" s="53"/>
       <c r="AH15" s="45"/>
       <c r="AI15" s="45"/>
@@ -6827,7 +6845,7 @@
       <c r="AM15" s="50"/>
       <c r="AN15" s="1"/>
     </row>
-    <row r="16" spans="1:42" ht="18" customHeight="1">
+    <row r="16" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="132" t="s">
         <v>8</v>
       </c>
@@ -6893,7 +6911,7 @@
       <c r="AO16" s="1"/>
       <c r="AP16" s="1"/>
     </row>
-    <row r="17" spans="1:42" ht="16.5" customHeight="1">
+    <row r="17" spans="1:42" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="133" t="s">
         <v>9</v>
       </c>
@@ -6955,7 +6973,7 @@
       <c r="AO17" s="1"/>
       <c r="AP17" s="1"/>
     </row>
-    <row r="18" spans="1:42" ht="17.25" customHeight="1">
+    <row r="18" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="133" t="s">
         <v>10</v>
       </c>
@@ -7013,7 +7031,7 @@
       <c r="AO18" s="1"/>
       <c r="AP18" s="1"/>
     </row>
-    <row r="19" spans="1:42" ht="17.25" customHeight="1">
+    <row r="19" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>40</v>
       </c>
@@ -7067,7 +7085,7 @@
       <c r="AO19" s="1"/>
       <c r="AP19" s="1"/>
     </row>
-    <row r="20" spans="1:42" ht="16.5" customHeight="1">
+    <row r="20" spans="1:42" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="133" t="s">
         <v>56</v>
       </c>
@@ -7137,7 +7155,7 @@
       <c r="AO20" s="1"/>
       <c r="AP20" s="1"/>
     </row>
-    <row r="21" spans="1:42" ht="18.75" customHeight="1" thickBot="1">
+    <row r="21" spans="1:42" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="135" t="s">
         <v>59</v>
       </c>
@@ -7207,7 +7225,7 @@
       <c r="AO21" s="19"/>
       <c r="AP21" s="1"/>
     </row>
-    <row r="22" spans="1:42" ht="16.5" customHeight="1">
+    <row r="22" spans="1:42" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="135" t="s">
         <v>51</v>
       </c>
@@ -7295,7 +7313,7 @@
       <c r="AO22" s="1"/>
       <c r="AP22" s="19"/>
     </row>
-    <row r="23" spans="1:42" ht="15" customHeight="1">
+    <row r="23" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="135" t="s">
         <v>62</v>
       </c>
@@ -7345,7 +7363,7 @@
       <c r="AO23" s="1"/>
       <c r="AP23" s="19"/>
     </row>
-    <row r="24" spans="1:42" ht="17.25" customHeight="1">
+    <row r="24" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="135" t="s">
         <v>11</v>
       </c>
@@ -7409,7 +7427,7 @@
       <c r="AO24" s="19"/>
       <c r="AP24" s="1"/>
     </row>
-    <row r="25" spans="1:42" ht="17.25" customHeight="1">
+    <row r="25" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>113</v>
       </c>
@@ -7472,14 +7490,14 @@
         <v>82</v>
       </c>
       <c r="AJ25" s="54"/>
-      <c r="AK25" s="562"/>
-      <c r="AL25" s="562"/>
+      <c r="AK25" s="561"/>
+      <c r="AL25" s="561"/>
       <c r="AM25" s="48"/>
       <c r="AN25" s="1"/>
       <c r="AO25" s="19"/>
       <c r="AP25" s="1"/>
     </row>
-    <row r="26" spans="1:42" ht="17.25" customHeight="1">
+    <row r="26" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>48</v>
       </c>
@@ -7553,7 +7571,7 @@
       <c r="AO26" s="19"/>
       <c r="AP26" s="1"/>
     </row>
-    <row r="27" spans="1:42" ht="16.5" customHeight="1" thickBot="1">
+    <row r="27" spans="1:42" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>122</v>
       </c>
@@ -7623,7 +7641,7 @@
       <c r="AO27" s="1"/>
       <c r="AP27" s="1"/>
     </row>
-    <row r="28" spans="1:42" ht="16.5" customHeight="1">
+    <row r="28" spans="1:42" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="209" t="s">
         <v>110</v>
       </c>
@@ -7685,7 +7703,7 @@
       <c r="AO28" s="2"/>
       <c r="AP28" s="1"/>
     </row>
-    <row r="29" spans="1:42" ht="16.5" customHeight="1">
+    <row r="29" spans="1:42" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>52</v>
       </c>
@@ -7737,7 +7755,7 @@
       <c r="AO29" s="2"/>
       <c r="AP29" s="1"/>
     </row>
-    <row r="30" spans="1:42" ht="16.5" customHeight="1">
+    <row r="30" spans="1:42" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="215" t="s">
         <v>70</v>
       </c>
@@ -7791,7 +7809,7 @@
       <c r="AO30" s="2"/>
       <c r="AP30" s="1"/>
     </row>
-    <row r="31" spans="1:42" ht="16.5" customHeight="1">
+    <row r="31" spans="1:42" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="133" t="s">
         <v>67</v>
       </c>
@@ -7865,7 +7883,7 @@
       <c r="AO31" s="2"/>
       <c r="AP31" s="1"/>
     </row>
-    <row r="32" spans="1:42" ht="16.5" customHeight="1" thickBot="1">
+    <row r="32" spans="1:42" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>101</v>
       </c>
@@ -7955,7 +7973,7 @@
       <c r="AO32" s="2"/>
       <c r="AP32" s="1"/>
     </row>
-    <row r="33" spans="1:41" ht="18">
+    <row r="33" spans="1:41" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="136" t="s">
         <v>13</v>
       </c>
@@ -8008,7 +8026,7 @@
       <c r="AN33" s="105"/>
       <c r="AO33" s="1"/>
     </row>
-    <row r="34" spans="1:41" ht="18" customHeight="1">
+    <row r="34" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="133" t="s">
         <v>143</v>
       </c>
@@ -8063,7 +8081,7 @@
       <c r="AN34" s="106"/>
       <c r="AO34" s="107"/>
     </row>
-    <row r="35" spans="1:41" ht="18">
+    <row r="35" spans="1:41" ht="18" x14ac:dyDescent="0.25">
       <c r="A35" s="135" t="s">
         <v>14</v>
       </c>
@@ -8136,7 +8154,7 @@
       <c r="AN35" s="108"/>
       <c r="AO35" s="1"/>
     </row>
-    <row r="36" spans="1:41" ht="15.75" customHeight="1">
+    <row r="36" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="135" t="s">
         <v>140</v>
       </c>
@@ -8156,7 +8174,7 @@
       <c r="O36" s="66"/>
       <c r="P36" s="81"/>
       <c r="Q36" s="426"/>
-      <c r="R36" s="564" t="s">
+      <c r="R36" s="563" t="s">
         <v>77</v>
       </c>
       <c r="S36" s="122" t="s">
@@ -8201,7 +8219,7 @@
       <c r="AN36" s="182"/>
       <c r="AO36" s="1"/>
     </row>
-    <row r="37" spans="1:41" ht="15.75" customHeight="1">
+    <row r="37" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="135" t="s">
         <v>117</v>
       </c>
@@ -8254,7 +8272,7 @@
       <c r="AN37" s="25"/>
       <c r="AO37" s="1"/>
     </row>
-    <row r="38" spans="1:41" ht="16.5" customHeight="1" thickBot="1">
+    <row r="38" spans="1:41" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="134" t="s">
         <v>16</v>
       </c>
@@ -8307,7 +8325,7 @@
       <c r="AN38" s="25"/>
       <c r="AO38" s="1"/>
     </row>
-    <row r="39" spans="1:41" ht="16.5" customHeight="1">
+    <row r="39" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="136" t="s">
         <v>123</v>
       </c>
@@ -8360,7 +8378,7 @@
       </c>
       <c r="AO39" s="1"/>
     </row>
-    <row r="40" spans="1:41" ht="18" customHeight="1">
+    <row r="40" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="135" t="s">
         <v>119</v>
       </c>
@@ -8425,7 +8443,7 @@
       <c r="AN40" s="1"/>
       <c r="AO40" s="1"/>
     </row>
-    <row r="41" spans="1:41" ht="18" customHeight="1">
+    <row r="41" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="135" t="s">
         <v>120</v>
       </c>
@@ -8510,50 +8528,50 @@
       </c>
       <c r="AO41" s="1"/>
     </row>
-    <row r="42" spans="1:41" ht="17.25" customHeight="1">
+    <row r="42" spans="1:41" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="B42" s="580"/>
-      <c r="C42" s="581"/>
+      <c r="B42" s="582"/>
+      <c r="C42" s="583"/>
       <c r="D42" s="54"/>
       <c r="E42" s="54"/>
       <c r="F42" s="54"/>
-      <c r="G42" s="589"/>
-      <c r="H42" s="590"/>
+      <c r="G42" s="571"/>
+      <c r="H42" s="572"/>
       <c r="I42" s="435"/>
-      <c r="J42" s="586" t="s">
+      <c r="J42" s="573" t="s">
         <v>89</v>
       </c>
-      <c r="K42" s="587"/>
+      <c r="K42" s="574"/>
       <c r="L42" s="48"/>
       <c r="M42" s="226"/>
       <c r="N42" s="226"/>
-      <c r="O42" s="574"/>
-      <c r="P42" s="588"/>
+      <c r="O42" s="569"/>
+      <c r="P42" s="570"/>
       <c r="Q42" s="455"/>
       <c r="R42" s="361"/>
       <c r="S42" s="48"/>
       <c r="T42" s="48"/>
-      <c r="U42" s="591"/>
-      <c r="V42" s="592"/>
-      <c r="W42" s="589"/>
-      <c r="X42" s="590"/>
+      <c r="U42" s="593"/>
+      <c r="V42" s="594"/>
+      <c r="W42" s="571"/>
+      <c r="X42" s="572"/>
       <c r="Y42" s="435"/>
-      <c r="Z42" s="586" t="s">
+      <c r="Z42" s="573" t="s">
         <v>88</v>
       </c>
-      <c r="AA42" s="587"/>
+      <c r="AA42" s="574"/>
       <c r="AB42" s="48"/>
-      <c r="AC42" s="574"/>
-      <c r="AD42" s="575"/>
-      <c r="AE42" s="574"/>
-      <c r="AF42" s="588"/>
-      <c r="AG42" s="585"/>
-      <c r="AH42" s="575"/>
+      <c r="AC42" s="569"/>
+      <c r="AD42" s="592"/>
+      <c r="AE42" s="569"/>
+      <c r="AF42" s="570"/>
+      <c r="AG42" s="591"/>
+      <c r="AH42" s="592"/>
       <c r="AI42" s="66"/>
-      <c r="AJ42" s="574"/>
-      <c r="AK42" s="575"/>
+      <c r="AJ42" s="569"/>
+      <c r="AK42" s="592"/>
       <c r="AL42" s="126"/>
       <c r="AM42" s="127"/>
       <c r="AN42" s="21" t="s">
@@ -8563,7 +8581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:41" ht="17.25" customHeight="1">
+    <row r="43" spans="1:41" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="135" t="s">
         <v>116</v>
       </c>
@@ -8612,7 +8630,7 @@
       <c r="AN43" s="21"/>
       <c r="AO43" s="21"/>
     </row>
-    <row r="44" spans="1:41" ht="16.5" customHeight="1" thickBot="1">
+    <row r="44" spans="1:41" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
         <v>118</v>
       </c>
@@ -8681,7 +8699,7 @@
       <c r="AN44" s="21"/>
       <c r="AO44" s="21"/>
     </row>
-    <row r="45" spans="1:41" ht="16.5" customHeight="1">
+    <row r="45" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="212" t="s">
         <v>72</v>
       </c>
@@ -8736,7 +8754,7 @@
       <c r="AN45" s="21"/>
       <c r="AO45" s="21"/>
     </row>
-    <row r="46" spans="1:41" ht="18">
+    <row r="46" spans="1:41" ht="18" x14ac:dyDescent="0.25">
       <c r="A46" s="133" t="s">
         <v>71</v>
       </c>
@@ -8817,7 +8835,7 @@
       <c r="AN46" s="297"/>
       <c r="AO46" s="1"/>
     </row>
-    <row r="47" spans="1:41" ht="18.75" customHeight="1">
+    <row r="47" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="133" t="s">
         <v>19</v>
       </c>
@@ -8857,10 +8875,10 @@
       <c r="S47" s="98" t="s">
         <v>54</v>
       </c>
-      <c r="T47" s="573" t="s">
+      <c r="T47" s="601" t="s">
         <v>105</v>
       </c>
-      <c r="U47" s="572"/>
+      <c r="U47" s="600"/>
       <c r="V47" s="48"/>
       <c r="W47" s="43"/>
       <c r="X47" s="90"/>
@@ -8890,7 +8908,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:41" ht="16.5" customHeight="1" thickBot="1">
+    <row r="48" spans="1:41" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="13" t="s">
         <v>21</v>
       </c>
@@ -8916,20 +8934,20 @@
         <v>38</v>
       </c>
       <c r="I48" s="416"/>
-      <c r="J48" s="606" t="s">
+      <c r="J48" s="567" t="s">
         <v>108</v>
       </c>
-      <c r="K48" s="607"/>
+      <c r="K48" s="568"/>
       <c r="L48" s="69"/>
       <c r="M48" s="45"/>
       <c r="N48" s="235"/>
       <c r="O48" s="141"/>
       <c r="P48" s="169"/>
       <c r="Q48" s="465"/>
-      <c r="R48" s="606" t="s">
+      <c r="R48" s="567" t="s">
         <v>108</v>
       </c>
-      <c r="S48" s="607"/>
+      <c r="S48" s="568"/>
       <c r="T48" s="69"/>
       <c r="U48" s="64"/>
       <c r="V48" s="141"/>
@@ -8957,13 +8975,13 @@
       </c>
       <c r="AG48" s="254"/>
       <c r="AH48" s="232"/>
-      <c r="AI48" s="582" t="s">
+      <c r="AI48" s="588" t="s">
         <v>109</v>
       </c>
-      <c r="AJ48" s="583"/>
-      <c r="AK48" s="583"/>
-      <c r="AL48" s="583"/>
-      <c r="AM48" s="584"/>
+      <c r="AJ48" s="589"/>
+      <c r="AK48" s="589"/>
+      <c r="AL48" s="589"/>
+      <c r="AM48" s="590"/>
       <c r="AN48" s="26" t="s">
         <v>22</v>
       </c>
@@ -8971,7 +8989,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:41" ht="16.5" customHeight="1">
+    <row r="49" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
         <v>23</v>
       </c>
@@ -9048,7 +9066,7 @@
       <c r="AN49" s="25"/>
       <c r="AO49" s="1"/>
     </row>
-    <row r="50" spans="1:41" ht="17.25" customHeight="1">
+    <row r="50" spans="1:41" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="215" t="s">
         <v>24</v>
       </c>
@@ -9129,7 +9147,7 @@
       </c>
       <c r="AO50" s="1"/>
     </row>
-    <row r="51" spans="1:41" ht="15.75" customHeight="1" thickBot="1">
+    <row r="51" spans="1:41" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="22" t="s">
         <v>41</v>
       </c>
@@ -9212,7 +9230,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:41" ht="15.75" customHeight="1">
+    <row r="52" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
         <v>73</v>
       </c>
@@ -9297,7 +9315,7 @@
       </c>
       <c r="AO52" s="1"/>
     </row>
-    <row r="53" spans="1:41" ht="15.75" customHeight="1">
+    <row r="53" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="132" t="s">
         <v>127</v>
       </c>
@@ -9350,7 +9368,7 @@
       <c r="AN53" s="23"/>
       <c r="AO53" s="1"/>
     </row>
-    <row r="54" spans="1:41" ht="17.25" customHeight="1" thickBot="1">
+    <row r="54" spans="1:41" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="133" t="s">
         <v>50</v>
       </c>
@@ -9428,7 +9446,7 @@
       <c r="AM54" s="96"/>
       <c r="AO54" s="1"/>
     </row>
-    <row r="55" spans="1:41" ht="17.25" customHeight="1">
+    <row r="55" spans="1:41" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="137" t="s">
         <v>44</v>
       </c>
@@ -9531,7 +9549,7 @@
       </c>
       <c r="AO55" s="40"/>
     </row>
-    <row r="56" spans="1:41" ht="16.5" customHeight="1" thickBot="1">
+    <row r="56" spans="1:41" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="16" t="s">
         <v>28</v>
       </c>
@@ -9570,10 +9588,10 @@
       <c r="V56" s="162" t="s">
         <v>37</v>
       </c>
-      <c r="W56" s="593" t="s">
+      <c r="W56" s="595" t="s">
         <v>104</v>
       </c>
-      <c r="X56" s="594"/>
+      <c r="X56" s="596"/>
       <c r="Y56" s="483"/>
       <c r="Z56" s="387" t="s">
         <v>42</v>
@@ -9612,7 +9630,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="57" spans="1:41" ht="16.5" customHeight="1">
+    <row r="57" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="17" t="s">
         <v>29</v>
       </c>
@@ -9709,7 +9727,7 @@
       </c>
       <c r="AO57" s="1"/>
     </row>
-    <row r="58" spans="1:41" ht="17.25" customHeight="1">
+    <row r="58" spans="1:41" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="139" t="s">
         <v>114</v>
       </c>
@@ -9824,7 +9842,7 @@
       <c r="AN58" s="182"/>
       <c r="AO58" s="1"/>
     </row>
-    <row r="59" spans="1:41" ht="19.5" customHeight="1">
+    <row r="59" spans="1:41" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="17" t="s">
         <v>66</v>
       </c>
@@ -9923,7 +9941,7 @@
       </c>
       <c r="AO59" s="1"/>
     </row>
-    <row r="60" spans="1:41" ht="18.75" customHeight="1">
+    <row r="60" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="138" t="s">
         <v>39</v>
       </c>
@@ -10008,7 +10026,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="61" spans="1:41" ht="16.5" customHeight="1">
+    <row r="61" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="216" t="s">
         <v>91</v>
       </c>
@@ -10079,7 +10097,7 @@
       <c r="AN61" s="39"/>
       <c r="AO61" s="142"/>
     </row>
-    <row r="62" spans="1:41" ht="15" customHeight="1">
+    <row r="62" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="18" t="s">
         <v>30</v>
       </c>
@@ -10158,7 +10176,7 @@
       </c>
       <c r="AO62" s="19"/>
     </row>
-    <row r="63" spans="1:41" ht="15.75" customHeight="1">
+    <row r="63" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="18" t="s">
         <v>31</v>
       </c>
@@ -10235,7 +10253,7 @@
       <c r="AN63" s="36"/>
       <c r="AO63" s="21"/>
     </row>
-    <row r="64" spans="1:41" ht="14.25" customHeight="1" thickBot="1">
+    <row r="64" spans="1:41" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="217" t="s">
         <v>43</v>
       </c>
@@ -10312,7 +10330,7 @@
       <c r="AN64" s="184"/>
       <c r="AO64" s="1"/>
     </row>
-    <row r="65" spans="1:41" ht="10.5" customHeight="1" thickBot="1">
+    <row r="65" spans="1:41" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="201"/>
       <c r="C65" s="201"/>
@@ -10355,168 +10373,168 @@
       <c r="AN65" s="1"/>
       <c r="AO65" s="1"/>
     </row>
-    <row r="66" spans="1:41" ht="18.75" customHeight="1" thickBot="1">
+    <row r="66" spans="1:41" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="B66" s="565" t="s">
+      <c r="B66" s="584" t="s">
         <v>128</v>
       </c>
-      <c r="C66" s="566"/>
-      <c r="D66" s="566"/>
-      <c r="E66" s="566"/>
-      <c r="F66" s="566"/>
-      <c r="G66" s="566"/>
-      <c r="H66" s="567"/>
+      <c r="C66" s="585"/>
+      <c r="D66" s="585"/>
+      <c r="E66" s="585"/>
+      <c r="F66" s="585"/>
+      <c r="G66" s="585"/>
+      <c r="H66" s="587"/>
       <c r="I66" s="363"/>
-      <c r="J66" s="565" t="s">
+      <c r="J66" s="584" t="s">
         <v>129</v>
       </c>
-      <c r="K66" s="566"/>
-      <c r="L66" s="566"/>
-      <c r="M66" s="566"/>
-      <c r="N66" s="566"/>
-      <c r="O66" s="566"/>
-      <c r="P66" s="567"/>
+      <c r="K66" s="585"/>
+      <c r="L66" s="585"/>
+      <c r="M66" s="585"/>
+      <c r="N66" s="585"/>
+      <c r="O66" s="585"/>
+      <c r="P66" s="587"/>
       <c r="Q66" s="363"/>
-      <c r="R66" s="565" t="s">
+      <c r="R66" s="584" t="s">
         <v>130</v>
       </c>
-      <c r="S66" s="566"/>
-      <c r="T66" s="566"/>
-      <c r="U66" s="566"/>
-      <c r="V66" s="566"/>
-      <c r="W66" s="566"/>
-      <c r="X66" s="567"/>
+      <c r="S66" s="585"/>
+      <c r="T66" s="585"/>
+      <c r="U66" s="585"/>
+      <c r="V66" s="585"/>
+      <c r="W66" s="585"/>
+      <c r="X66" s="587"/>
       <c r="Y66" s="363"/>
-      <c r="Z66" s="565" t="s">
+      <c r="Z66" s="584" t="s">
         <v>23</v>
       </c>
-      <c r="AA66" s="566"/>
-      <c r="AB66" s="566"/>
-      <c r="AC66" s="566"/>
-      <c r="AD66" s="566"/>
-      <c r="AE66" s="566"/>
-      <c r="AF66" s="567"/>
-      <c r="AG66" s="565" t="s">
+      <c r="AA66" s="585"/>
+      <c r="AB66" s="585"/>
+      <c r="AC66" s="585"/>
+      <c r="AD66" s="585"/>
+      <c r="AE66" s="585"/>
+      <c r="AF66" s="587"/>
+      <c r="AG66" s="584" t="s">
         <v>49</v>
       </c>
-      <c r="AH66" s="566"/>
-      <c r="AI66" s="566"/>
-      <c r="AJ66" s="566"/>
-      <c r="AK66" s="566"/>
-      <c r="AL66" s="566"/>
-      <c r="AM66" s="568"/>
+      <c r="AH66" s="585"/>
+      <c r="AI66" s="585"/>
+      <c r="AJ66" s="585"/>
+      <c r="AK66" s="585"/>
+      <c r="AL66" s="585"/>
+      <c r="AM66" s="586"/>
       <c r="AN66" s="1"/>
       <c r="AO66" s="1"/>
     </row>
-    <row r="67" spans="1:41" ht="21" thickBot="1">
+    <row r="67" spans="1:41" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B67" s="565" t="s">
+      <c r="B67" s="584" t="s">
         <v>141</v>
       </c>
-      <c r="C67" s="566"/>
-      <c r="D67" s="566"/>
-      <c r="E67" s="566"/>
-      <c r="F67" s="566"/>
-      <c r="G67" s="566"/>
-      <c r="H67" s="567"/>
-      <c r="I67" s="563"/>
-      <c r="J67" s="565" t="s">
+      <c r="C67" s="585"/>
+      <c r="D67" s="585"/>
+      <c r="E67" s="585"/>
+      <c r="F67" s="585"/>
+      <c r="G67" s="585"/>
+      <c r="H67" s="587"/>
+      <c r="I67" s="562"/>
+      <c r="J67" s="584" t="s">
         <v>113</v>
       </c>
-      <c r="K67" s="566"/>
-      <c r="L67" s="566"/>
-      <c r="M67" s="566"/>
-      <c r="N67" s="566"/>
-      <c r="O67" s="566"/>
-      <c r="P67" s="567"/>
-      <c r="Q67" s="563"/>
-      <c r="R67" s="565" t="s">
+      <c r="K67" s="585"/>
+      <c r="L67" s="585"/>
+      <c r="M67" s="585"/>
+      <c r="N67" s="585"/>
+      <c r="O67" s="585"/>
+      <c r="P67" s="587"/>
+      <c r="Q67" s="562"/>
+      <c r="R67" s="584" t="s">
         <v>15</v>
       </c>
-      <c r="S67" s="566"/>
-      <c r="T67" s="566"/>
-      <c r="U67" s="566"/>
-      <c r="V67" s="566"/>
-      <c r="W67" s="566"/>
-      <c r="X67" s="567"/>
-      <c r="Y67" s="563"/>
-      <c r="Z67" s="565" t="s">
+      <c r="S67" s="585"/>
+      <c r="T67" s="585"/>
+      <c r="U67" s="585"/>
+      <c r="V67" s="585"/>
+      <c r="W67" s="585"/>
+      <c r="X67" s="587"/>
+      <c r="Y67" s="562"/>
+      <c r="Z67" s="584" t="s">
         <v>17</v>
       </c>
-      <c r="AA67" s="566"/>
-      <c r="AB67" s="566"/>
-      <c r="AC67" s="566"/>
-      <c r="AD67" s="566"/>
-      <c r="AE67" s="566"/>
-      <c r="AF67" s="567"/>
-      <c r="AG67" s="565" t="s">
+      <c r="AA67" s="585"/>
+      <c r="AB67" s="585"/>
+      <c r="AC67" s="585"/>
+      <c r="AD67" s="585"/>
+      <c r="AE67" s="585"/>
+      <c r="AF67" s="587"/>
+      <c r="AG67" s="584" t="s">
         <v>135</v>
       </c>
-      <c r="AH67" s="566"/>
-      <c r="AI67" s="566"/>
-      <c r="AJ67" s="566"/>
-      <c r="AK67" s="566"/>
-      <c r="AL67" s="566"/>
-      <c r="AM67" s="568"/>
-    </row>
-    <row r="68" spans="1:41" ht="21" thickBot="1">
+      <c r="AH67" s="585"/>
+      <c r="AI67" s="585"/>
+      <c r="AJ67" s="585"/>
+      <c r="AK67" s="585"/>
+      <c r="AL67" s="585"/>
+      <c r="AM67" s="586"/>
+    </row>
+    <row r="68" spans="1:41" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B68" s="565" t="s">
+      <c r="B68" s="584" t="s">
         <v>142</v>
       </c>
-      <c r="C68" s="566"/>
-      <c r="D68" s="566"/>
-      <c r="E68" s="566"/>
-      <c r="F68" s="566"/>
-      <c r="G68" s="566"/>
-      <c r="H68" s="567"/>
-      <c r="I68" s="563"/>
-      <c r="J68" s="565" t="s">
+      <c r="C68" s="585"/>
+      <c r="D68" s="585"/>
+      <c r="E68" s="585"/>
+      <c r="F68" s="585"/>
+      <c r="G68" s="585"/>
+      <c r="H68" s="587"/>
+      <c r="I68" s="562"/>
+      <c r="J68" s="584" t="s">
         <v>137</v>
       </c>
-      <c r="K68" s="566"/>
-      <c r="L68" s="566"/>
-      <c r="M68" s="566"/>
-      <c r="N68" s="566"/>
-      <c r="O68" s="566"/>
-      <c r="P68" s="567"/>
-      <c r="Q68" s="563"/>
-      <c r="R68" s="565" t="s">
+      <c r="K68" s="585"/>
+      <c r="L68" s="585"/>
+      <c r="M68" s="585"/>
+      <c r="N68" s="585"/>
+      <c r="O68" s="585"/>
+      <c r="P68" s="587"/>
+      <c r="Q68" s="562"/>
+      <c r="R68" s="584" t="s">
         <v>139</v>
       </c>
-      <c r="S68" s="566"/>
-      <c r="T68" s="566"/>
-      <c r="U68" s="566"/>
-      <c r="V68" s="566"/>
-      <c r="W68" s="566"/>
-      <c r="X68" s="567"/>
-      <c r="Y68" s="563"/>
-      <c r="Z68" s="565" t="s">
+      <c r="S68" s="585"/>
+      <c r="T68" s="585"/>
+      <c r="U68" s="585"/>
+      <c r="V68" s="585"/>
+      <c r="W68" s="585"/>
+      <c r="X68" s="587"/>
+      <c r="Y68" s="562"/>
+      <c r="Z68" s="584" t="s">
         <v>138</v>
       </c>
-      <c r="AA68" s="566"/>
-      <c r="AB68" s="566"/>
-      <c r="AC68" s="566"/>
-      <c r="AD68" s="566"/>
-      <c r="AE68" s="566"/>
-      <c r="AF68" s="567"/>
-      <c r="AG68" s="565" t="s">
+      <c r="AA68" s="585"/>
+      <c r="AB68" s="585"/>
+      <c r="AC68" s="585"/>
+      <c r="AD68" s="585"/>
+      <c r="AE68" s="585"/>
+      <c r="AF68" s="587"/>
+      <c r="AG68" s="584" t="s">
         <v>136</v>
       </c>
-      <c r="AH68" s="566"/>
-      <c r="AI68" s="566"/>
-      <c r="AJ68" s="566"/>
-      <c r="AK68" s="566"/>
-      <c r="AL68" s="566"/>
-      <c r="AM68" s="568"/>
-    </row>
-    <row r="70" spans="1:41">
+      <c r="AH68" s="585"/>
+      <c r="AI68" s="585"/>
+      <c r="AJ68" s="585"/>
+      <c r="AK68" s="585"/>
+      <c r="AL68" s="585"/>
+      <c r="AM68" s="586"/>
+    </row>
+    <row r="70" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -10559,275 +10577,277 @@
       <c r="AN70" s="1"/>
       <c r="AO70" s="1"/>
     </row>
-    <row r="80" spans="1:41">
+    <row r="80" spans="1:41" x14ac:dyDescent="0.25">
       <c r="R80" s="42"/>
     </row>
-    <row r="81" spans="18:20">
+    <row r="81" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R81" s="42"/>
     </row>
-    <row r="82" spans="18:20">
+    <row r="82" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R82" s="42"/>
     </row>
-    <row r="86" spans="18:20">
+    <row r="86" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R86" s="42"/>
     </row>
-    <row r="87" spans="18:20">
+    <row r="87" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R87" s="42"/>
     </row>
-    <row r="88" spans="18:20">
+    <row r="88" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R88" s="42"/>
       <c r="S88" s="42"/>
     </row>
-    <row r="89" spans="18:20">
+    <row r="89" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R89" s="42"/>
     </row>
-    <row r="90" spans="18:20">
+    <row r="90" spans="18:20" x14ac:dyDescent="0.25">
       <c r="S90" s="42"/>
     </row>
-    <row r="92" spans="18:20">
+    <row r="92" spans="18:20" x14ac:dyDescent="0.25">
       <c r="T92" s="42"/>
     </row>
-    <row r="93" spans="18:20">
+    <row r="93" spans="18:20" x14ac:dyDescent="0.25">
       <c r="S93" s="42"/>
     </row>
-    <row r="94" spans="18:20">
+    <row r="94" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R94" s="42"/>
       <c r="S94" s="42"/>
     </row>
-    <row r="95" spans="18:20">
+    <row r="95" spans="18:20" x14ac:dyDescent="0.25">
       <c r="S95" s="42"/>
     </row>
-    <row r="96" spans="18:20">
+    <row r="96" spans="18:20" x14ac:dyDescent="0.25">
       <c r="S96" s="42"/>
     </row>
-    <row r="102" spans="19:21">
+    <row r="102" spans="19:21" x14ac:dyDescent="0.25">
       <c r="U102" s="42"/>
     </row>
-    <row r="103" spans="19:21">
+    <row r="103" spans="19:21" x14ac:dyDescent="0.25">
       <c r="T103" s="42"/>
     </row>
-    <row r="104" spans="19:21">
+    <row r="104" spans="19:21" x14ac:dyDescent="0.25">
       <c r="T104" s="42"/>
     </row>
-    <row r="105" spans="19:21">
+    <row r="105" spans="19:21" x14ac:dyDescent="0.25">
       <c r="T105" s="42"/>
     </row>
-    <row r="106" spans="19:21">
+    <row r="106" spans="19:21" x14ac:dyDescent="0.25">
       <c r="T106" s="42"/>
     </row>
-    <row r="107" spans="19:21">
+    <row r="107" spans="19:21" x14ac:dyDescent="0.25">
       <c r="T107" s="42"/>
     </row>
-    <row r="108" spans="19:21">
+    <row r="108" spans="19:21" x14ac:dyDescent="0.25">
       <c r="S108" s="42"/>
       <c r="T108" s="42"/>
     </row>
-    <row r="109" spans="19:21">
+    <row r="109" spans="19:21" x14ac:dyDescent="0.25">
       <c r="S109" s="42"/>
       <c r="T109" s="42"/>
     </row>
-    <row r="110" spans="19:21">
+    <row r="110" spans="19:21" x14ac:dyDescent="0.25">
       <c r="T110" s="42"/>
     </row>
-    <row r="111" spans="19:21">
+    <row r="111" spans="19:21" x14ac:dyDescent="0.25">
       <c r="T111" s="42"/>
     </row>
-    <row r="112" spans="19:21">
+    <row r="112" spans="19:21" x14ac:dyDescent="0.25">
       <c r="T112" s="42"/>
     </row>
-    <row r="113" spans="16:21">
+    <row r="113" spans="16:21" x14ac:dyDescent="0.25">
       <c r="T113" s="42"/>
     </row>
-    <row r="114" spans="16:21">
+    <row r="114" spans="16:21" x14ac:dyDescent="0.25">
       <c r="U114" s="42"/>
     </row>
-    <row r="115" spans="16:21">
+    <row r="115" spans="16:21" x14ac:dyDescent="0.25">
       <c r="T115" s="42"/>
       <c r="U115" s="42"/>
     </row>
-    <row r="116" spans="16:21">
+    <row r="116" spans="16:21" x14ac:dyDescent="0.25">
       <c r="T116" s="42"/>
     </row>
-    <row r="118" spans="16:21">
+    <row r="118" spans="16:21" x14ac:dyDescent="0.25">
       <c r="T118" s="42"/>
     </row>
-    <row r="120" spans="16:21">
+    <row r="120" spans="16:21" x14ac:dyDescent="0.25">
       <c r="R120" s="42"/>
       <c r="S120" s="42"/>
     </row>
-    <row r="121" spans="16:21">
+    <row r="121" spans="16:21" x14ac:dyDescent="0.25">
       <c r="S121" s="42"/>
     </row>
-    <row r="122" spans="16:21">
+    <row r="122" spans="16:21" x14ac:dyDescent="0.25">
       <c r="S122" s="42"/>
     </row>
-    <row r="123" spans="16:21">
+    <row r="123" spans="16:21" x14ac:dyDescent="0.25">
       <c r="S123" s="42"/>
       <c r="T123" s="42"/>
     </row>
-    <row r="124" spans="16:21">
+    <row r="124" spans="16:21" x14ac:dyDescent="0.25">
       <c r="P124" s="42"/>
       <c r="Q124" s="42"/>
       <c r="S124" s="42"/>
     </row>
-    <row r="125" spans="16:21">
+    <row r="125" spans="16:21" x14ac:dyDescent="0.25">
       <c r="P125" s="42"/>
       <c r="Q125" s="42"/>
       <c r="S125" s="42"/>
       <c r="T125" s="42"/>
     </row>
-    <row r="126" spans="16:21">
+    <row r="126" spans="16:21" x14ac:dyDescent="0.25">
       <c r="R126" s="42"/>
       <c r="S126" s="42"/>
       <c r="T126" s="42"/>
     </row>
-    <row r="127" spans="16:21">
+    <row r="127" spans="16:21" x14ac:dyDescent="0.25">
       <c r="P127" s="42"/>
       <c r="Q127" s="42"/>
       <c r="S127" s="42"/>
       <c r="T127" s="42"/>
     </row>
-    <row r="128" spans="16:21">
+    <row r="128" spans="16:21" x14ac:dyDescent="0.25">
       <c r="P128" s="42"/>
       <c r="Q128" s="42"/>
       <c r="S128" s="42"/>
       <c r="T128" s="42"/>
     </row>
-    <row r="129" spans="16:25">
+    <row r="129" spans="16:25" x14ac:dyDescent="0.25">
       <c r="P129" s="42"/>
       <c r="Q129" s="42"/>
       <c r="S129" s="42"/>
       <c r="T129" s="42"/>
     </row>
-    <row r="130" spans="16:25">
+    <row r="130" spans="16:25" x14ac:dyDescent="0.25">
       <c r="R130" s="42"/>
       <c r="S130" s="42"/>
       <c r="T130" s="42"/>
       <c r="X130" s="42"/>
       <c r="Y130" s="42"/>
     </row>
-    <row r="131" spans="16:25">
+    <row r="131" spans="16:25" x14ac:dyDescent="0.25">
       <c r="R131" s="42"/>
       <c r="S131" s="42"/>
     </row>
-    <row r="132" spans="16:25">
+    <row r="132" spans="16:25" x14ac:dyDescent="0.25">
       <c r="R132" s="42"/>
       <c r="S132" s="42"/>
     </row>
-    <row r="133" spans="16:25">
+    <row r="133" spans="16:25" x14ac:dyDescent="0.25">
       <c r="R133" s="42"/>
       <c r="S133" s="42"/>
       <c r="U133" s="42"/>
     </row>
-    <row r="134" spans="16:25">
+    <row r="134" spans="16:25" x14ac:dyDescent="0.25">
       <c r="R134" s="42"/>
       <c r="S134" s="42"/>
       <c r="T134" s="42"/>
       <c r="U134" s="42"/>
     </row>
-    <row r="135" spans="16:25">
+    <row r="135" spans="16:25" x14ac:dyDescent="0.25">
       <c r="P135" s="42"/>
       <c r="Q135" s="42"/>
       <c r="S135" s="42"/>
     </row>
-    <row r="136" spans="16:25">
+    <row r="136" spans="16:25" x14ac:dyDescent="0.25">
       <c r="R136" s="42"/>
       <c r="S136" s="42"/>
     </row>
-    <row r="137" spans="16:25">
+    <row r="137" spans="16:25" x14ac:dyDescent="0.25">
       <c r="R137" s="42"/>
       <c r="S137" s="42"/>
       <c r="T137" s="42"/>
       <c r="V137" s="42"/>
     </row>
-    <row r="138" spans="16:25">
+    <row r="138" spans="16:25" x14ac:dyDescent="0.25">
       <c r="S138" s="42"/>
       <c r="T138" s="42"/>
     </row>
-    <row r="139" spans="16:25">
+    <row r="139" spans="16:25" x14ac:dyDescent="0.25">
       <c r="S139" s="42"/>
     </row>
-    <row r="140" spans="16:25">
+    <row r="140" spans="16:25" x14ac:dyDescent="0.25">
       <c r="S140" s="42"/>
       <c r="V140" s="42"/>
     </row>
-    <row r="141" spans="16:25">
+    <row r="141" spans="16:25" x14ac:dyDescent="0.25">
       <c r="R141" s="42"/>
       <c r="S141" s="42"/>
       <c r="T141" s="42"/>
     </row>
-    <row r="142" spans="16:25">
+    <row r="142" spans="16:25" x14ac:dyDescent="0.25">
       <c r="T142" s="42"/>
     </row>
-    <row r="143" spans="16:25">
+    <row r="143" spans="16:25" x14ac:dyDescent="0.25">
       <c r="T143" s="42"/>
     </row>
-    <row r="144" spans="16:25">
+    <row r="144" spans="16:25" x14ac:dyDescent="0.25">
       <c r="T144" s="42"/>
       <c r="W144" s="42"/>
     </row>
-    <row r="145" spans="20:27">
+    <row r="145" spans="20:27" x14ac:dyDescent="0.25">
       <c r="T145" s="42"/>
       <c r="X145" s="42"/>
       <c r="Y145" s="42"/>
       <c r="Z145" s="42"/>
       <c r="AA145" s="42"/>
     </row>
-    <row r="146" spans="20:27">
+    <row r="146" spans="20:27" x14ac:dyDescent="0.25">
       <c r="T146" s="42"/>
       <c r="X146" s="42"/>
       <c r="Y146" s="42"/>
       <c r="Z146" s="42"/>
       <c r="AA146" s="42"/>
     </row>
-    <row r="147" spans="20:27">
+    <row r="147" spans="20:27" x14ac:dyDescent="0.25">
       <c r="X147" s="42"/>
       <c r="Y147" s="42"/>
     </row>
-    <row r="148" spans="20:27">
+    <row r="148" spans="20:27" x14ac:dyDescent="0.25">
       <c r="T148" s="42"/>
       <c r="X148" s="42"/>
       <c r="Y148" s="42"/>
     </row>
-    <row r="149" spans="20:27">
+    <row r="149" spans="20:27" x14ac:dyDescent="0.25">
       <c r="T149" s="42"/>
       <c r="X149" s="42"/>
       <c r="Y149" s="42"/>
     </row>
-    <row r="150" spans="20:27">
+    <row r="150" spans="20:27" x14ac:dyDescent="0.25">
       <c r="T150" s="42"/>
     </row>
-    <row r="151" spans="20:27">
+    <row r="151" spans="20:27" x14ac:dyDescent="0.25">
       <c r="T151" s="42"/>
     </row>
-    <row r="152" spans="20:27">
+    <row r="152" spans="20:27" x14ac:dyDescent="0.25">
       <c r="T152" s="42"/>
     </row>
-    <row r="153" spans="20:27">
+    <row r="153" spans="20:27" x14ac:dyDescent="0.25">
       <c r="T153" s="42"/>
     </row>
-    <row r="154" spans="20:27">
+    <row r="154" spans="20:27" x14ac:dyDescent="0.25">
       <c r="T154" s="42"/>
     </row>
-    <row r="155" spans="20:27">
+    <row r="155" spans="20:27" x14ac:dyDescent="0.25">
       <c r="T155" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="R48:S48"/>
-    <mergeCell ref="A1:AM1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="J2:P2"/>
-    <mergeCell ref="R2:X2"/>
-    <mergeCell ref="Z2:AF2"/>
-    <mergeCell ref="AG2:AM2"/>
+    <mergeCell ref="B68:H68"/>
+    <mergeCell ref="J68:P68"/>
+    <mergeCell ref="R68:X68"/>
+    <mergeCell ref="Z68:AF68"/>
+    <mergeCell ref="AG68:AM68"/>
+    <mergeCell ref="B67:H67"/>
+    <mergeCell ref="J67:P67"/>
+    <mergeCell ref="R67:X67"/>
+    <mergeCell ref="Z67:AF67"/>
+    <mergeCell ref="AG67:AM67"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="T47:U47"/>
+    <mergeCell ref="AJ42:AK42"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AB12:AC12"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="AG66:AM66"/>
     <mergeCell ref="Z66:AF66"/>
@@ -10843,22 +10863,20 @@
     <mergeCell ref="U42:V42"/>
     <mergeCell ref="AC42:AD42"/>
     <mergeCell ref="W56:X56"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="T47:U47"/>
-    <mergeCell ref="AJ42:AK42"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="B67:H67"/>
-    <mergeCell ref="J67:P67"/>
-    <mergeCell ref="R67:X67"/>
-    <mergeCell ref="Z67:AF67"/>
-    <mergeCell ref="AG67:AM67"/>
-    <mergeCell ref="B68:H68"/>
-    <mergeCell ref="J68:P68"/>
-    <mergeCell ref="R68:X68"/>
-    <mergeCell ref="Z68:AF68"/>
-    <mergeCell ref="AG68:AM68"/>
+    <mergeCell ref="A1:AM1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="J2:P2"/>
+    <mergeCell ref="R2:X2"/>
+    <mergeCell ref="Z2:AF2"/>
+    <mergeCell ref="AG2:AM2"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="R48:S48"/>
+    <mergeCell ref="F12:H12"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.55118110236220474" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -10868,33 +10886,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="3" max="3" width="11.140625" customWidth="1"/>
     <col min="4" max="4" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="18.75">
-      <c r="B1" s="609" t="s">
+    <row r="1" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B1" s="604" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="609"/>
-      <c r="D1" s="609"/>
-    </row>
-    <row r="2" spans="2:6" ht="18.75" thickBot="1">
+      <c r="C1" s="604"/>
+      <c r="D1" s="604"/>
+    </row>
+    <row r="2" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="27"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29"/>
     </row>
-    <row r="3" spans="2:6" ht="18.75" thickBot="1">
+    <row r="3" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="47"/>
       <c r="C3" s="28" t="s">
         <v>33</v>
@@ -10903,12 +10921,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="18.75" thickBot="1">
+    <row r="4" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="321"/>
       <c r="C4" s="28"/>
       <c r="D4" s="29"/>
     </row>
-    <row r="5" spans="2:6" ht="18.75" thickBot="1">
+    <row r="5" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="35"/>
       <c r="C5" s="28" t="s">
         <v>33</v>
@@ -10917,12 +10935,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="18.75" thickBot="1">
+    <row r="6" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="322"/>
       <c r="C6" s="28"/>
       <c r="D6" s="29"/>
     </row>
-    <row r="7" spans="2:6" ht="18.75" thickBot="1">
+    <row r="7" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="44"/>
       <c r="C7" s="28" t="s">
         <v>33</v>
@@ -10931,12 +10949,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="18.75" thickBot="1">
+    <row r="8" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="322"/>
       <c r="C8" s="28"/>
       <c r="D8" s="29"/>
     </row>
-    <row r="9" spans="2:6" ht="18.75" thickBot="1">
+    <row r="9" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="346"/>
       <c r="C9" s="323" t="s">
         <v>33</v>
@@ -10945,12 +10963,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="18.75" thickBot="1">
+    <row r="10" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="322"/>
       <c r="C10" s="28"/>
       <c r="D10" s="29"/>
     </row>
-    <row r="11" spans="2:6" ht="18.75" thickBot="1">
+    <row r="11" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="30"/>
       <c r="C11" s="28" t="s">
         <v>33</v>
@@ -10959,12 +10977,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="18.75" thickBot="1">
+    <row r="12" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="321"/>
-      <c r="C12" s="555"/>
+      <c r="C12" s="554"/>
       <c r="D12" s="29"/>
     </row>
-    <row r="13" spans="2:6" ht="18.75" thickBot="1">
+    <row r="13" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="204"/>
       <c r="C13" s="28" t="s">
         <v>33</v>
@@ -10973,13 +10991,13 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="18.75" thickBot="1">
+    <row r="14" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="324"/>
       <c r="C14" s="28"/>
       <c r="D14" s="41"/>
       <c r="F14" s="42"/>
     </row>
-    <row r="15" spans="2:6" ht="18.75" thickBot="1">
+    <row r="15" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="31"/>
       <c r="C15" s="28" t="s">
         <v>33</v>
@@ -10988,13 +11006,13 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="18.75" thickBot="1">
+    <row r="16" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="322"/>
       <c r="C16" s="28"/>
       <c r="D16" s="29"/>
     </row>
-    <row r="17" spans="2:4" ht="18.75" thickBot="1">
-      <c r="B17" s="559"/>
+    <row r="17" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="558"/>
       <c r="C17" s="28" t="s">
         <v>33</v>
       </c>
@@ -11002,12 +11020,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="18.75" thickBot="1">
+    <row r="18" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="322"/>
       <c r="C18" s="28"/>
       <c r="D18" s="29"/>
     </row>
-    <row r="19" spans="2:4" ht="18.75" thickBot="1">
+    <row r="19" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="525"/>
       <c r="C19" s="28" t="s">
         <v>33</v>
@@ -11016,13 +11034,13 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="18.75" thickBot="1">
+    <row r="20" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="322"/>
       <c r="C20" s="28"/>
       <c r="D20" s="29"/>
     </row>
-    <row r="21" spans="2:4" ht="18.75" thickBot="1">
-      <c r="B21" s="560"/>
+    <row r="21" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="559"/>
       <c r="C21" s="28" t="s">
         <v>33</v>
       </c>
@@ -11030,13 +11048,13 @@
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="18.75" thickBot="1">
+    <row r="22" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="322"/>
       <c r="C22" s="28"/>
       <c r="D22" s="29"/>
     </row>
-    <row r="23" spans="2:4" ht="18.75" thickBot="1">
-      <c r="B23" s="561"/>
+    <row r="23" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="560"/>
       <c r="C23" s="28" t="s">
         <v>33</v>
       </c>
@@ -11044,12 +11062,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="18.75" thickBot="1">
+    <row r="24" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="322"/>
       <c r="C24" s="28"/>
       <c r="D24" s="29"/>
     </row>
-    <row r="25" spans="2:4" ht="18.75" thickBot="1">
+    <row r="25" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="33"/>
       <c r="C25" s="28" t="s">
         <v>33</v>
@@ -11058,24 +11076,24 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="18.75" thickBot="1">
-      <c r="B26" s="558"/>
+    <row r="26" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="557"/>
       <c r="C26" s="28"/>
       <c r="D26" s="29"/>
     </row>
-    <row r="27" spans="2:4" ht="18.75" thickBot="1">
+    <row r="27" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="32"/>
       <c r="C27" s="28"/>
       <c r="D27" s="29" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="15.75" thickBot="1">
+    <row r="28" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="322"/>
       <c r="C28" s="322"/>
       <c r="D28" s="29"/>
     </row>
-    <row r="29" spans="2:4" ht="21" thickBot="1">
+    <row r="29" spans="2:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="34"/>
       <c r="C29" s="28" t="s">
         <v>33</v>
@@ -11084,12 +11102,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="15.75" thickBot="1">
+    <row r="30" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="322"/>
       <c r="C30" s="322"/>
       <c r="D30" s="322"/>
     </row>
-    <row r="31" spans="2:4" ht="18.75" thickBot="1">
+    <row r="31" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="46"/>
       <c r="C31" s="28" t="s">
         <v>33</v>
@@ -11098,13 +11116,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="15.75" thickBot="1">
+    <row r="32" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="322"/>
       <c r="C32" s="322"/>
       <c r="D32" s="29"/>
     </row>
-    <row r="33" spans="2:4" ht="18.75" thickBot="1">
-      <c r="B33" s="557"/>
+    <row r="33" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="556"/>
       <c r="C33" s="28" t="s">
         <v>33</v>
       </c>
@@ -11112,13 +11130,13 @@
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="15.75" thickBot="1">
+    <row r="34" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="322"/>
       <c r="C34" s="322"/>
       <c r="D34" s="322"/>
     </row>
-    <row r="35" spans="2:4" ht="18.75" thickBot="1">
-      <c r="B35" s="554"/>
+    <row r="35" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="553"/>
       <c r="C35" s="28" t="s">
         <v>33</v>
       </c>
@@ -11126,13 +11144,13 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="15.75" thickBot="1">
+    <row r="36" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="322"/>
       <c r="C36" s="322"/>
       <c r="D36" s="322"/>
     </row>
-    <row r="37" spans="2:4" ht="18.75" thickBot="1">
-      <c r="B37" s="556"/>
+    <row r="37" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="555"/>
       <c r="C37" s="28" t="s">
         <v>33</v>
       </c>
@@ -11140,8 +11158,8 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="2:4" ht="15.75" thickBot="1"/>
-    <row r="39" spans="2:4" ht="18.75" thickBot="1">
+    <row r="38" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="544"/>
       <c r="C39" s="28" t="s">
         <v>33</v>
@@ -11150,9 +11168,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="40" spans="2:4" ht="15.75" thickBot="1"/>
-    <row r="41" spans="2:4" ht="18.75" thickBot="1">
-      <c r="B41" s="553"/>
+    <row r="40" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="552"/>
       <c r="C41" s="28" t="s">
         <v>33</v>
       </c>
@@ -11160,8 +11178,8 @@
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="2:4" ht="15.75" thickBot="1"/>
-    <row r="43" spans="2:4" ht="18.75" thickBot="1">
+    <row r="42" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="545"/>
       <c r="C43" s="28" t="s">
         <v>33</v>
